--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFEB795-89FD-47C8-99F7-4CA4143BB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880A509-AE71-42E8-B72C-D95BD89C7775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Part1</t>
   </si>
@@ -37,16 +37,28 @@
   </si>
   <si>
     <t>Program evaluation standards</t>
+  </si>
+  <si>
+    <t>The Keys to Success</t>
+  </si>
+  <si>
+    <t>Part3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +84,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -354,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,7 +428,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880A509-AE71-42E8-B72C-D95BD89C7775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF890309-8063-405D-8DAD-0ED40F5093B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Part1</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Part3</t>
+  </si>
+  <si>
+    <t>Part4</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,15 +442,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF890309-8063-405D-8DAD-0ED40F5093B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF71A7D-5424-4440-BFE8-DF47443ACE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Part1</t>
   </si>
   <si>
-    <t>Program evaluation basics</t>
-  </si>
-  <si>
     <t>Part2</t>
   </si>
   <si>
-    <t>Program evaluation standards</t>
-  </si>
-  <si>
     <t>The Keys to Success</t>
   </si>
   <si>
@@ -49,6 +43,36 @@
   </si>
   <si>
     <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Part5</t>
+  </si>
+  <si>
+    <t>Program Evaluation Basics</t>
+  </si>
+  <si>
+    <t>Program Evaluation Standards</t>
+  </si>
+  <si>
+    <t>Logic Model and Theory of Change</t>
+  </si>
+  <si>
+    <t>Part6</t>
+  </si>
+  <si>
+    <t>Evaluation Type, Approach and Framework</t>
+  </si>
+  <si>
+    <t>Part7</t>
+  </si>
+  <si>
+    <t>Evaluation Matrix</t>
+  </si>
+  <si>
+    <t>Part8</t>
+  </si>
+  <si>
+    <t>Research Methods</t>
   </si>
 </sst>
 </file>
@@ -406,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,31 +447,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF71A7D-5424-4440-BFE8-DF47443ACE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5CF80-EC8A-4772-B380-ECAE8F821881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Part1</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Research Methods</t>
+  </si>
+  <si>
+    <t>Part0</t>
+  </si>
+  <si>
+    <t>PRACTICE 418 WORDS AT ONCE!</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,6 +512,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
